--- a/web/src/main/resources/static/excel/sample-personel-excel.xlsx
+++ b/web/src/main/resources/static/excel/sample-personel-excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>کد ملی</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>آزاد</t>
+  </si>
+  <si>
+    <t>موبایل</t>
+  </si>
+  <si>
+    <t>09184601978</t>
   </si>
 </sst>
 </file>
@@ -91,12 +97,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,20 +394,22 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -413,7 +427,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -425,7 +441,7 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>3720228851</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -443,7 +459,9 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -455,13 +473,13 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -473,13 +491,13 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -491,13 +509,13 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -509,13 +527,13 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -527,13 +545,13 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -545,13 +563,13 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -563,13 +581,13 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -581,13 +599,13 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -599,13 +617,13 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -617,13 +635,13 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -635,13 +653,13 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
